--- a/medicine/Handicap/Sam,_je_suis_Sam/Sam,_je_suis_Sam.xlsx
+++ b/medicine/Handicap/Sam,_je_suis_Sam/Sam,_je_suis_Sam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sam, je suis Sam ou Je suis Sam au Québec (I Am Sam) est un film américain réalisé par Jessie Nelson, sorti en 2001.
 À sa sortie, le film reçoit des avis assez négatifs de la part des critiques. Il rapporte plus de 97 millions de dollars au box-office, contre un budget de production de 22 millions de dollars. Pour son rôle de Sam, Sean Penn est nommé pour l'Oscar du meilleur acteur à la 74e cérémonie des Oscars en 2002. Le film lance également la carrière de l'actrice Dakota Fanning, qui a alors sept ans et n'a joué auparavant que deux petits rôles au cinéma. Elle devient la plus jeune actrice à être nommée pour un Screen Actors Guild Awards.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1993, Samuel Dawson, un employé de Starbucks ayant une déficience intellectuelle, devient le père célibataire de Lucy Diamond Dawson, du nom de la chanson des Beatles Lucy in the Sky with Diamonds, à la suite de son abandon par sa mère, une SDF avec qui Sam eut une relation sexuelle.
 Sam est bien adapté à la société et a un groupe d'amis handicapés qui le soutiennent, ainsi qu'une gentille voisine, Annie, qui prend soin de Lucy quand Sam ne le peut pas. Près de sept ans plus tard, en 2001, Sam offre un lieu d'amour à la précoce Lucy, bien qu'elle dépasse rapidement ses capacités mentales et ses capacités. Les autres l'intimident parce qu'elle a un père handicapé intellectuel, et elle devient trop gênée pour accepter qu'elle est plus avancée que lui. En danger de perdre la garde de ses enfants, Sam reçoit des conseils de ses amis et engage également une avocate, Rita Harrison, dont l'absorption dans son travail et la négligence de son fils la révèlent également aux prises avec son rôle de parent. Dans une tentative de prouver qu'elle n'a pas froid, Rita accepte de prendre en charge le cas de Sam pro bono.
@@ -548,7 +562,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : I Am Sam
 Titre français : Sam, je suis Sam
@@ -594,10 +610,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sean Penn (VF : Emmanuel Karsen et VQ : Sébastien Dhavernas) : Sam Dawson
-Michelle Pfeiffer (VF : Emmanuelle Bondeville et VQ : Élise Bertrand[1]) : Me Rita Harrison Williams
+Michelle Pfeiffer (VF : Emmanuelle Bondeville et VQ : Élise Bertrand) : Me Rita Harrison Williams
 Dakota Fanning (VF : Florine Orphelin et VQ : Claudia-Laurie Corbeil) : Lucy Diamond Dawson
 Elle Fanning : Lucy Diamond Dawson (à 3 ans)
 Dianne Wiest : Annie Cassell
@@ -646,14 +664,16 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Récompenses
-Critics' Choice Awards 2002 : Meilleur espoir (Dakota Fanning)
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Critics' Choice Awards 2002 : Meilleur espoir (Dakota Fanning)
 Golden Satellite Awards 2002 : Révélation de l'année (Dakota Fanning)
 Las Vegas Film Critics Society Awards : Meilleure jeune actrice (Dakota Fanning)
-Young Artist Awards : Meilleure prestation dans un film pour une actrice âgée de 10 ans ou moins (Dakota Fanning)
-Nominations
-Oscars 2002 : Meilleur acteur (Sean Penn)
-Grammy Awards 2003 : Meilleure bande originale de film</t>
+Young Artist Awards : Meilleure prestation dans un film pour une actrice âgée de 10 ans ou moins (Dakota Fanning)</t>
         </is>
       </c>
     </row>
@@ -678,13 +698,55 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Oscars 2002 : Meilleur acteur (Sean Penn)
+Grammy Awards 2003 : Meilleure bande originale de film</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sam,_je_suis_Sam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sam,_je_suis_Sam</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sorties</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Sorties cinéma
- États-Unis : 3 décembre 2001 (première), 25 janvier 2002
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sorties cinéma</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis : 3 décembre 2001 (première), 25 janvier 2002
  Canada : 25 janvier 2002
  Israël : 21 février 2002
  Espagne : 1er mars 2002
@@ -722,34 +784,36 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Sam,_je_suis_Sam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Handicap/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sam,_je_suis_Sam</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Le personnage de Lucy Diamond Dawson à l'âge de trois ans est interprété par Elle Fanning, la petite sœur de l'actrice Dakota Fanning.
-Une grande partie de la bande originale du film est composée de chansons des Beatles, interprétées par d'autres artistes tels que Rufus Wainwright, The Black Crowes, Grandaddy, Sarah McLachlan, Eddie Vedder, Ben Harper, Nick Cave[2]ou Sheryl Crow. Ces différents morceaux conservent le même tempo que ceux d'origine.
+Une grande partie de la bande originale du film est composée de chansons des Beatles, interprétées par d'autres artistes tels que Rufus Wainwright, The Black Crowes, Grandaddy, Sarah McLachlan, Eddie Vedder, Ben Harper, Nick Caveou Sheryl Crow. Ces différents morceaux conservent le même tempo que ceux d'origine.
 Le personnage de « Lucy » est nommé d'après la chanson Lucy in the Sky with Diamonds, des Beatles
 Le personnage de « Rita » est nommé d'après la chanson Lovely Rita.
 La scène où Sam et Lucy, accompagnés de leurs amis Brad, Joe, Robert et Ifty, traversent la rue en tenant des ballons à la main, est un hommage à la fameuse couverture de l'album des Beatles, Abbey Road.
